--- a/MS Links for assessment.xlsx
+++ b/MS Links for assessment.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MS LINKS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -865,6 +865,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -876,84 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -1277,10 +1277,10 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1294,8 +1294,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1307,8 +1307,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
@@ -1320,8 +1320,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1333,8 +1333,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="70"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1346,8 +1346,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="70"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1359,8 +1359,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1379,10 +1379,10 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="61" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1396,8 +1396,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="78"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
@@ -1409,8 +1409,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="78"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
@@ -1435,8 +1435,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="78"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="64" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1450,8 +1450,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="78"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="19" t="s">
         <v>34</v>
       </c>
@@ -1463,8 +1463,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="78"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
@@ -1476,8 +1476,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="19" t="s">
         <v>38</v>
       </c>
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="78"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -1504,8 +1504,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="78"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="19" t="s">
         <v>43</v>
       </c>
@@ -1517,8 +1517,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="78"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="19" t="s">
         <v>45</v>
       </c>
@@ -1530,8 +1530,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" thickBot="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="21" t="s">
         <v>47</v>
       </c>
@@ -1550,10 +1550,10 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -1567,8 +1567,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="23" t="s">
         <v>53</v>
       </c>
@@ -1580,8 +1580,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="23" t="s">
         <v>55</v>
       </c>
@@ -1593,8 +1593,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="70"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="23" t="s">
         <v>57</v>
       </c>
@@ -1606,13 +1606,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="70"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="24"/>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="70"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="67" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -1620,27 +1620,27 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="70"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="70"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="70"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="24"/>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="67" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1648,15 +1648,15 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="70"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="26" t="s">
         <v>66</v>
       </c>
@@ -1684,66 +1684,66 @@
       <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="74" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="60"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="60"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="66"/>
+      <c r="D41" s="76"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="60"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="76"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="60"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="76"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="60"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="66"/>
+      <c r="D44" s="76"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A45" s="61"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="66"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" thickBot="1">
       <c r="A46" s="15"/>
@@ -1751,7 +1751,7 @@
       <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="58" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="33"/>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A48" s="68"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37" t="s">
         <v>82</v>
@@ -1778,90 +1778,90 @@
       <c r="C49" s="32"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="78" t="s">
         <v>84</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="81" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="53"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="40"/>
       <c r="C51" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="55"/>
+      <c r="D51" s="81"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="53"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="40"/>
       <c r="C52" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="55"/>
+      <c r="D52" s="81"/>
     </row>
     <row r="53" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A53" s="53"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="40"/>
       <c r="C53" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="55"/>
+      <c r="D53" s="81"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="53"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="40"/>
       <c r="C54" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="53"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="40" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="81"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="53"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="40"/>
       <c r="C56" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="81"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="53"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="40"/>
       <c r="C57" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="81"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="53"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="40"/>
       <c r="C58" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A59" s="54"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="43"/>
       <c r="C59" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="81"/>
     </row>
     <row r="60" spans="1:4" ht="15.6" thickBot="1">
       <c r="A60" s="15"/>
@@ -1872,7 +1872,7 @@
       <c r="A61" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="61" t="s">
         <v>97</v>
       </c>
       <c r="C61" s="34"/>
@@ -1884,7 +1884,7 @@
       <c r="A62" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="57"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="47"/>
       <c r="D62" s="46" t="s">
         <v>98</v>
@@ -1894,7 +1894,7 @@
       <c r="A63" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="37"/>
       <c r="D63" s="48" t="s">
         <v>99</v>
@@ -1907,23 +1907,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="B61:B63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A61" r:id="rId1"/>
